--- a/Result/Traffic.xlsx
+++ b/Result/Traffic.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="1200" windowWidth="26660" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="640" windowWidth="26660" windowHeight="15580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HH" sheetId="1" r:id="rId1"/>
-    <sheet name="FE" sheetId="3" r:id="rId2"/>
+    <sheet name="HHH" sheetId="4" r:id="rId2"/>
+    <sheet name="FE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
-  <si>
-    <t>AAE-500K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Elastic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +40,6 @@
   </si>
   <si>
     <t>CUOurs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARE-500K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CR-500K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR-500K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,6 +56,30 @@
   </si>
   <si>
     <t>ARE-20M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAE-2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARE-2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR-2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpaceSaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHHH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,11 +436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1764625920"/>
-        <c:axId val="1816417120"/>
+        <c:axId val="1727472288"/>
+        <c:axId val="1727474064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1764625920"/>
+        <c:axId val="1727472288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816417120"/>
+        <c:crossAx val="1727474064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1816417120"/>
+        <c:axId val="1727474064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.05"/>
@@ -533,7 +542,492 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764625920"/>
+        <c:crossAx val="1727472288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ARE-20M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FE!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elastic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FE!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.10454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.53437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.85241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.14088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FE!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSketch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FE!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.5006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.5022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.8871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FE!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUOurs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FE!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.259731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.257949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.254839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1725911344"/>
+        <c:axId val="1725913120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1725911344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725913120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1725913120"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+          <c:min val="0.05"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725911344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -910,11 +1404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1816743472"/>
-        <c:axId val="1701024192"/>
+        <c:axId val="1727805104"/>
+        <c:axId val="1727807424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1816743472"/>
+        <c:axId val="1727805104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +1451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701024192"/>
+        <c:crossAx val="1727807424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +1459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1701024192"/>
+        <c:axId val="1727807424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1018,7 +1512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816743472"/>
+        <c:crossAx val="1727805104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1395,11 +1889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1759200816"/>
-        <c:axId val="1701582992"/>
+        <c:axId val="1727575040"/>
+        <c:axId val="1757797856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1759200816"/>
+        <c:axId val="1727575040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1936,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701582992"/>
+        <c:crossAx val="1757797856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1701582992"/>
+        <c:axId val="1757797856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1501,7 +1995,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759200816"/>
+        <c:crossAx val="1727575040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1878,11 +2372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1817030848"/>
-        <c:axId val="1764248352"/>
+        <c:axId val="1720781712"/>
+        <c:axId val="1721397136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1817030848"/>
+        <c:axId val="1720781712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +2419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1764248352"/>
+        <c:crossAx val="1721397136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1933,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1764248352"/>
+        <c:axId val="1721397136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1954,6 +2448,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1984,7 +2479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817030848"/>
+        <c:crossAx val="1720781712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2100,7 +2595,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>AAE-20M</a:t>
+              <a:t>AAE-2M</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -2147,11 +2642,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FE!$B$1</c:f>
+              <c:f>HHH!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elastic</c:v>
+                  <c:v>SpaceSaving</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2170,42 +2665,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>FE!$A$2:$A$5</c:f>
+              <c:f>HHH!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FE!$B$2:$B$5</c:f>
+              <c:f>HHH!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.82307</c:v>
+                  <c:v>149.126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.31648</c:v>
+                  <c:v>247.499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.48356</c:v>
+                  <c:v>556.854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.4852</c:v>
+                  <c:v>865.394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,11 +2712,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FE!$C$1</c:f>
+              <c:f>HHH!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CountSketch</c:v>
+                  <c:v>RHHH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2240,42 +2735,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>FE!$A$2:$A$5</c:f>
+              <c:f>HHH!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FE!$C$2:$C$5</c:f>
+              <c:f>HHH!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23.5343</c:v>
+                  <c:v>196.881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.186</c:v>
+                  <c:v>311.282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.7679</c:v>
+                  <c:v>508.714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.738</c:v>
+                  <c:v>788.114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +2782,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>FE!$D$1</c:f>
+              <c:f>HHH!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2310,42 +2805,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>FE!$A$2:$A$5</c:f>
+              <c:f>HHH!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FE!$D$2:$D$5</c:f>
+              <c:f>HHH!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.738226</c:v>
+                  <c:v>16.4214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.759465</c:v>
+                  <c:v>23.7763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.781804</c:v>
+                  <c:v>54.0205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.815518</c:v>
+                  <c:v>55.4857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,11 +2856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1758964288"/>
-        <c:axId val="1759426752"/>
+        <c:axId val="1756991712"/>
+        <c:axId val="1756993488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1758964288"/>
+        <c:axId val="1756991712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759426752"/>
+        <c:crossAx val="1756993488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2416,9 +2911,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759426752"/>
+        <c:axId val="1756993488"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2437,6 +2931,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2467,7 +2962,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758964288"/>
+        <c:crossAx val="1756991712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,7 +3078,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>ARE-20M</a:t>
+              <a:t>ARE-2M</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -2630,11 +3125,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FE!$I$1</c:f>
+              <c:f>HHH!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elastic</c:v>
+                  <c:v>SpaceSaving</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2653,42 +3148,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>FE!$H$2:$H$5</c:f>
+              <c:f>HHH!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FE!$I$2:$I$5</c:f>
+              <c:f>HHH!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.10454</c:v>
+                  <c:v>0.0305633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.53437</c:v>
+                  <c:v>0.0504381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.85241</c:v>
+                  <c:v>0.0951044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.14088</c:v>
+                  <c:v>0.15901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,11 +3195,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FE!$J$1</c:f>
+              <c:f>HHH!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CountSketch</c:v>
+                  <c:v>RHHH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2723,42 +3218,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>FE!$H$2:$H$5</c:f>
+              <c:f>HHH!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FE!$J$2:$J$5</c:f>
+              <c:f>HHH!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.5006</c:v>
+                  <c:v>0.0370636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.5636</c:v>
+                  <c:v>0.0594649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.5022</c:v>
+                  <c:v>0.0975733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.8871</c:v>
+                  <c:v>0.161139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,7 +3265,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>FE!$K$1</c:f>
+              <c:f>HHH!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2793,42 +3288,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>FE!$H$2:$H$5</c:f>
+              <c:f>HHH!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FE!$K$2:$K$5</c:f>
+              <c:f>HHH!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.259731</c:v>
+                  <c:v>0.00332526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.257949</c:v>
+                  <c:v>0.00472733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.254865</c:v>
+                  <c:v>0.00711974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.254839</c:v>
+                  <c:v>0.00742114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,11 +3339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1759463408"/>
-        <c:axId val="1759465184"/>
+        <c:axId val="1709314288"/>
+        <c:axId val="1709753088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1759463408"/>
+        <c:axId val="1709314288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +3386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759465184"/>
+        <c:crossAx val="1709753088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2899,12 +3394,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759465184"/>
+        <c:axId val="1709753088"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
-          <c:min val="0.05"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2952,7 +3444,1458 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759463408"/>
+        <c:crossAx val="1709314288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CR-2M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HHH!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpaceSaving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HHH!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HHH!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.975839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.798517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.716257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HHH!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RHHH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HHH!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HHH!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.985019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.967114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.778739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.706659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HHH!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUOurs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HHH!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HHH!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.996255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.995302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.993201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.989202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1720989408"/>
+        <c:axId val="1721700576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1720989408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721700576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1721700576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720989408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PR-2M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HHH!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpaceSaving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HHH!$H$11:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HHH!$I$11:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.913103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.807329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.149624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.168668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HHH!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RHHH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HHH!$H$11:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HHH!$J$11:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.890921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.784431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0929535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HHH!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUOurs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HHH!$H$11:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HHH!$K$11:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.994025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.993972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.988609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1360604448"/>
+        <c:axId val="1861798256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1360604448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861798256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861798256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360604448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AAE-20M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elastic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FE!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.82307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.31648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.48356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.4852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FE!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CountSketch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FE!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23.5343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.7679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FE!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUOurs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>FE!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.738226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.759465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.781804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.815518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1725547872"/>
+        <c:axId val="1725550192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1725547872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725550192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1725550192"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725547872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3034,6 +4977,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3273,6 +5256,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3789,7 +5892,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4305,7 +6408,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4821,7 +6924,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5337,7 +7440,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5853,7 +7956,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6495,6 +10662,131 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6824,36 +11116,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -6962,28 +11254,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -7099,9 +11391,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>149.126</v>
+      </c>
+      <c r="C2">
+        <v>196.881</v>
+      </c>
+      <c r="D2">
+        <v>16.421399999999998</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3.0563300000000002E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.7063600000000002E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.32526E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>247.499</v>
+      </c>
+      <c r="C3">
+        <v>311.28199999999998</v>
+      </c>
+      <c r="D3">
+        <v>23.776299999999999</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>5.04381E-2</v>
+      </c>
+      <c r="J3">
+        <v>5.9464900000000001E-2</v>
+      </c>
+      <c r="K3">
+        <v>4.7273300000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>556.85400000000004</v>
+      </c>
+      <c r="C4">
+        <v>508.714</v>
+      </c>
+      <c r="D4">
+        <v>54.020499999999998</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>9.5104400000000006E-2</v>
+      </c>
+      <c r="J4">
+        <v>9.7573300000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>7.1197400000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>865.39400000000001</v>
+      </c>
+      <c r="C5">
+        <v>788.11400000000003</v>
+      </c>
+      <c r="D5">
+        <v>55.485700000000001</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0.15901000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.161139</v>
+      </c>
+      <c r="K5">
+        <v>7.4211399999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.99175999999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.98501899999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.996255</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.913103</v>
+      </c>
+      <c r="J11">
+        <v>0.89092099999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.99402500000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.97583900000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.96711400000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.99530200000000002</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0.80732899999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.78443099999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.99397199999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.79851700000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.77873899999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.993201</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>0.14962400000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.103009</v>
+      </c>
+      <c r="K13">
+        <v>0.99321000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.71625700000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.70665900000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.98920200000000003</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>0.16866800000000001</v>
+      </c>
+      <c r="J14">
+        <v>9.2953499999999994E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.98860899999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -7109,28 +11678,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">

--- a/Result/Traffic.xlsx
+++ b/Result/Traffic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="640" windowWidth="26660" windowHeight="15580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="26660" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HH" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Elastic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>RHHH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeauCoup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,6 +431,76 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HH!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BeauCoup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HH!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HH!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.153663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.202149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.304779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.338541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -436,11 +510,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1727472288"/>
-        <c:axId val="1727474064"/>
+        <c:axId val="517194464"/>
+        <c:axId val="517196784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1727472288"/>
+        <c:axId val="517194464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727474064"/>
+        <c:crossAx val="517196784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -491,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1727474064"/>
+        <c:axId val="517196784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.05"/>
@@ -542,7 +616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727472288"/>
+        <c:crossAx val="517194464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,11 +993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725911344"/>
-        <c:axId val="1725913120"/>
+        <c:axId val="519355968"/>
+        <c:axId val="519358720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725911344"/>
+        <c:axId val="519355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1040,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725913120"/>
+        <c:crossAx val="519358720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725913120"/>
+        <c:axId val="519358720"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1027,7 +1101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725911344"/>
+        <c:crossAx val="519355968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1395,6 +1469,76 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HH!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BeauCoup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HH!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HH!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1297.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1785.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2494.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2786.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1404,11 +1548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1727805104"/>
-        <c:axId val="1727807424"/>
+        <c:axId val="494378960"/>
+        <c:axId val="494381712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1727805104"/>
+        <c:axId val="494378960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727807424"/>
+        <c:crossAx val="494381712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1459,7 +1603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1727807424"/>
+        <c:axId val="494381712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1512,7 +1656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727805104"/>
+        <c:crossAx val="494378960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,6 +2024,76 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HH!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BeauCoup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HH!$A$11:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HH!$E$11:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.857026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.813785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.803292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.833966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1889,11 +2103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1727575040"/>
-        <c:axId val="1757797856"/>
+        <c:axId val="517214944"/>
+        <c:axId val="517217696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1727575040"/>
+        <c:axId val="517214944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +2150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1757797856"/>
+        <c:crossAx val="517217696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1944,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1757797856"/>
+        <c:axId val="517217696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1995,7 +2209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727575040"/>
+        <c:crossAx val="517214944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2363,6 +2577,76 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HH!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BeauCoup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HH!$H$11:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HH!$L$11:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.885232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.813457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.612062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.449708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2372,11 +2656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1720781712"/>
-        <c:axId val="1721397136"/>
+        <c:axId val="517252544"/>
+        <c:axId val="517255296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1720781712"/>
+        <c:axId val="517252544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1721397136"/>
+        <c:crossAx val="517255296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1721397136"/>
+        <c:axId val="517255296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2479,7 +2763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720781712"/>
+        <c:crossAx val="517252544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,7 +2885,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2856,11 +3139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1756991712"/>
-        <c:axId val="1756993488"/>
+        <c:axId val="517295008"/>
+        <c:axId val="517297760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1756991712"/>
+        <c:axId val="517295008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +3186,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756993488"/>
+        <c:crossAx val="517297760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2911,7 +3194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1756993488"/>
+        <c:axId val="517297760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,7 +3245,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756991712"/>
+        <c:crossAx val="517295008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2976,7 +3259,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3084,7 +3366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3339,11 +3620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1709314288"/>
-        <c:axId val="1709753088"/>
+        <c:axId val="519243072"/>
+        <c:axId val="519245824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1709314288"/>
+        <c:axId val="519243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709753088"/>
+        <c:crossAx val="519245824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3394,7 +3675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1709753088"/>
+        <c:axId val="519245824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3725,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709314288"/>
+        <c:crossAx val="519243072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3458,7 +3739,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3566,7 +3846,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3821,11 +4100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1720989408"/>
-        <c:axId val="1721700576"/>
+        <c:axId val="437452752"/>
+        <c:axId val="437455504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1720989408"/>
+        <c:axId val="437452752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,7 +4147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1721700576"/>
+        <c:crossAx val="437455504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3876,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1721700576"/>
+        <c:axId val="437455504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3929,7 +4208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720989408"/>
+        <c:crossAx val="437452752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3943,7 +4222,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4051,7 +4329,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4306,11 +4583,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1360604448"/>
-        <c:axId val="1861798256"/>
+        <c:axId val="519282256"/>
+        <c:axId val="519285008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1360604448"/>
+        <c:axId val="519282256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4630,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861798256"/>
+        <c:crossAx val="519285008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4361,7 +4638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861798256"/>
+        <c:axId val="519285008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4412,7 +4689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360604448"/>
+        <c:crossAx val="519282256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4703,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4789,11 +5065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725547872"/>
-        <c:axId val="1725550192"/>
+        <c:axId val="519324224"/>
+        <c:axId val="519326976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725547872"/>
+        <c:axId val="519324224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4836,7 +5112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725550192"/>
+        <c:crossAx val="519326976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4844,7 +5120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725550192"/>
+        <c:axId val="519326976"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4895,7 +5171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725547872"/>
+        <c:crossAx val="519324224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11114,15 +11390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11135,6 +11411,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
@@ -11147,8 +11426,11 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11161,6 +11443,9 @@
       <c r="D2">
         <v>9.9048400000000001</v>
       </c>
+      <c r="E2">
+        <v>1297.3900000000001</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -11173,8 +11458,11 @@
       <c r="K2">
         <v>1.7924499999999999E-3</v>
       </c>
+      <c r="L2">
+        <v>0.15366299999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11187,6 +11475,9 @@
       <c r="D3">
         <v>14.6282</v>
       </c>
+      <c r="E3">
+        <v>1785.22</v>
+      </c>
       <c r="H3">
         <v>2</v>
       </c>
@@ -11199,8 +11490,11 @@
       <c r="K3">
         <v>2.81686E-3</v>
       </c>
+      <c r="L3">
+        <v>0.202149</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11213,6 +11507,9 @@
       <c r="D4">
         <v>21.113399999999999</v>
       </c>
+      <c r="E4">
+        <v>2494.77</v>
+      </c>
       <c r="H4">
         <v>3</v>
       </c>
@@ -11225,8 +11522,11 @@
       <c r="K4">
         <v>3.7216699999999998E-3</v>
       </c>
+      <c r="L4">
+        <v>0.30477900000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11239,6 +11539,9 @@
       <c r="D5">
         <v>31.476600000000001</v>
       </c>
+      <c r="E5">
+        <v>2786.55</v>
+      </c>
       <c r="H5">
         <v>4</v>
       </c>
@@ -11251,8 +11554,11 @@
       <c r="K5">
         <v>4.6896500000000001E-3</v>
       </c>
+      <c r="L5">
+        <v>0.33854099999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11265,6 +11571,9 @@
       <c r="D10" t="s">
         <v>2</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
@@ -11277,8 +11586,11 @@
       <c r="K10" t="s">
         <v>2</v>
       </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11291,6 +11603,9 @@
       <c r="D11">
         <v>0.99754900000000002</v>
       </c>
+      <c r="E11">
+        <v>0.85702599999999995</v>
+      </c>
       <c r="H11">
         <v>1</v>
       </c>
@@ -11303,8 +11618,11 @@
       <c r="K11">
         <v>0.99510200000000004</v>
       </c>
+      <c r="L11">
+        <v>0.88523200000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -11317,6 +11635,9 @@
       <c r="D12">
         <v>0.99556599999999995</v>
       </c>
+      <c r="E12">
+        <v>0.81378499999999998</v>
+      </c>
       <c r="H12">
         <v>2</v>
       </c>
@@ -11329,8 +11650,11 @@
       <c r="K12">
         <v>0.99395599999999995</v>
       </c>
+      <c r="L12">
+        <v>0.81345699999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11343,6 +11667,9 @@
       <c r="D13">
         <v>0.99555899999999997</v>
       </c>
+      <c r="E13">
+        <v>0.80329200000000001</v>
+      </c>
       <c r="H13">
         <v>3</v>
       </c>
@@ -11355,8 +11682,11 @@
       <c r="K13">
         <v>0.99555800000000005</v>
       </c>
+      <c r="L13">
+        <v>0.61206199999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11369,6 +11699,9 @@
       <c r="D14">
         <v>0.99506600000000001</v>
       </c>
+      <c r="E14">
+        <v>0.83396599999999999</v>
+      </c>
       <c r="H14">
         <v>4</v>
       </c>
@@ -11380,6 +11713,9 @@
       </c>
       <c r="K14">
         <v>0.994865</v>
+      </c>
+      <c r="L14">
+        <v>0.449708</v>
       </c>
     </row>
   </sheetData>
@@ -11670,7 +12006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/Result/Traffic.xlsx
+++ b/Result/Traffic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="26660" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="3180" yWindow="960" windowWidth="26660" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HH" sheetId="1" r:id="rId1"/>
@@ -510,11 +510,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="517194464"/>
-        <c:axId val="517196784"/>
+        <c:axId val="207370976"/>
+        <c:axId val="207373808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="517194464"/>
+        <c:axId val="207370976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517196784"/>
+        <c:crossAx val="207373808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="517196784"/>
+        <c:axId val="207373808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.05"/>
@@ -616,7 +616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517194464"/>
+        <c:crossAx val="207370976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -993,11 +993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="519355968"/>
-        <c:axId val="519358720"/>
+        <c:axId val="129121632"/>
+        <c:axId val="129123952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519355968"/>
+        <c:axId val="129121632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1040,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519358720"/>
+        <c:crossAx val="129123952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519358720"/>
+        <c:axId val="129123952"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1101,7 +1101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519355968"/>
+        <c:crossAx val="129121632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,11 +1548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="494378960"/>
-        <c:axId val="494381712"/>
+        <c:axId val="207147712"/>
+        <c:axId val="207150544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="494378960"/>
+        <c:axId val="207147712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494381712"/>
+        <c:crossAx val="207150544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1603,7 +1603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494381712"/>
+        <c:axId val="207150544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1656,7 +1656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494378960"/>
+        <c:crossAx val="207147712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,11 +2103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="517214944"/>
-        <c:axId val="517217696"/>
+        <c:axId val="96517056"/>
+        <c:axId val="96949856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="517214944"/>
+        <c:axId val="96517056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517217696"/>
+        <c:crossAx val="96949856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="517217696"/>
+        <c:axId val="96949856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2209,7 +2209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517214944"/>
+        <c:crossAx val="96517056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2656,11 +2656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="517252544"/>
-        <c:axId val="517255296"/>
+        <c:axId val="212803152"/>
+        <c:axId val="212805440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="517252544"/>
+        <c:axId val="212803152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517255296"/>
+        <c:crossAx val="212805440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2711,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="517255296"/>
+        <c:axId val="212805440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2763,7 +2763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517252544"/>
+        <c:crossAx val="212803152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2885,6 +2885,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3139,11 +3140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="517295008"/>
-        <c:axId val="517297760"/>
+        <c:axId val="212108032"/>
+        <c:axId val="212146256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="517295008"/>
+        <c:axId val="212108032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3187,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517297760"/>
+        <c:crossAx val="212146256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3194,7 +3195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="517297760"/>
+        <c:axId val="212146256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3245,7 +3246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517295008"/>
+        <c:crossAx val="212108032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3259,6 +3260,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,6 +3368,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3620,11 +3623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="519243072"/>
-        <c:axId val="519245824"/>
+        <c:axId val="207181792"/>
+        <c:axId val="207184112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519243072"/>
+        <c:axId val="207181792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3667,7 +3670,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519245824"/>
+        <c:crossAx val="207184112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3675,7 +3678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519245824"/>
+        <c:axId val="207184112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3725,7 +3728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519243072"/>
+        <c:crossAx val="207181792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3739,6 +3742,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3846,6 +3850,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4100,11 +4105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="437452752"/>
-        <c:axId val="437455504"/>
+        <c:axId val="192853552"/>
+        <c:axId val="192855328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="437452752"/>
+        <c:axId val="192853552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,7 +4152,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437455504"/>
+        <c:crossAx val="192855328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4155,7 +4160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="437455504"/>
+        <c:axId val="192855328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4208,7 +4213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437452752"/>
+        <c:crossAx val="192853552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4222,6 +4227,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4329,6 +4335,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4583,11 +4590,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="519282256"/>
-        <c:axId val="519285008"/>
+        <c:axId val="214359520"/>
+        <c:axId val="129080944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519282256"/>
+        <c:axId val="214359520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519285008"/>
+        <c:crossAx val="129080944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4638,7 +4645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519285008"/>
+        <c:axId val="129080944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4659,6 +4666,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4689,7 +4697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519282256"/>
+        <c:crossAx val="214359520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4703,6 +4711,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5065,11 +5074,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="519324224"/>
-        <c:axId val="519326976"/>
+        <c:axId val="192827728"/>
+        <c:axId val="192830048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519324224"/>
+        <c:axId val="192827728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519326976"/>
+        <c:crossAx val="192830048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5120,7 +5129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519326976"/>
+        <c:axId val="192830048"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5141,6 +5150,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5171,7 +5181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519324224"/>
+        <c:crossAx val="192827728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11390,10 +11400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11558,6 +11568,20 @@
         <v>0.33854099999999998</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>I5/K5</f>
+        <v>2.3923533739191623</v>
+      </c>
+      <c r="J7">
+        <f>J5/K5</f>
+        <v>116.9001951105093</v>
+      </c>
+      <c r="L7">
+        <f>L5/K5</f>
+        <v>72.188969326069099</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
@@ -11716,6 +11740,32 @@
       </c>
       <c r="L14">
         <v>0.449708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>D14-B14</f>
+        <v>0.63074000000000008</v>
+      </c>
+      <c r="C16">
+        <f>D14-C14</f>
+        <v>0.85464899999999999</v>
+      </c>
+      <c r="E16">
+        <f>D14-E14</f>
+        <v>0.16110000000000002</v>
+      </c>
+      <c r="I16">
+        <f>K14-I14</f>
+        <v>2.0245999999999986E-2</v>
+      </c>
+      <c r="J16">
+        <f>K14-J14</f>
+        <v>0.88136800000000004</v>
+      </c>
+      <c r="L16">
+        <f>K14-L14</f>
+        <v>0.545157</v>
       </c>
     </row>
   </sheetData>
@@ -11727,10 +11777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11865,6 +11915,16 @@
         <v>7.4211399999999997E-3</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>I5/K5</f>
+        <v>21.42662717587864</v>
+      </c>
+      <c r="J7">
+        <f>J5/K5</f>
+        <v>21.7135103232118</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
@@ -11993,6 +12053,24 @@
       </c>
       <c r="K14">
         <v>0.98860899999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>D14-B14</f>
+        <v>0.27294499999999999</v>
+      </c>
+      <c r="C16">
+        <f>D14-C14</f>
+        <v>0.28254299999999999</v>
+      </c>
+      <c r="I16">
+        <f>K14-I14</f>
+        <v>0.81994099999999992</v>
+      </c>
+      <c r="J16">
+        <f>K14-J14</f>
+        <v>0.89565549999999994</v>
       </c>
     </row>
   </sheetData>
@@ -12004,15 +12082,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -12038,7 +12116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12064,7 +12142,7 @@
         <v>0.25973099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12090,7 +12168,7 @@
         <v>0.25794899999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12116,7 +12194,7 @@
         <v>0.25486500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12141,8 +12219,16 @@
       <c r="K5">
         <v>0.25483899999999998</v>
       </c>
+      <c r="M5">
+        <f>I5/K5</f>
+        <v>20.17305043576533</v>
+      </c>
+      <c r="N5">
+        <f>J5/K5</f>
+        <v>144.74668319998116</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" ht="67" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
